--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,15 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -61,52 +64,70 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>friends</t>
@@ -115,123 +136,105 @@
     <t>glad</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>day</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>always</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -241,79 +244,88 @@
     <t>works</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>cup</t>
+    <t>little</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>makes</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>quality</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -674,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -793,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2828282828282828</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2325581395348837</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1189189189189189</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8498452012383901</v>
+        <v>0.859375</v>
       </c>
       <c r="L6">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,12 +947,36 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.1243243243243243</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>162</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>0.8478260869565217</v>
@@ -966,16 +1002,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8405797101449275</v>
+        <v>0.8405572755417957</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7662337662337663</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,21 +1049,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7142857142857143</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6949152542372882</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L13">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="M13">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6888888888888889</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1143,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6842105263157895</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1169,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.676056338028169</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1195,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1226,16 +1262,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6323529411764706</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1247,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6316211878009631</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>787</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>787</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>459</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.6153846153846154</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1299,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1325,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.609375</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1351,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1377,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5972222222222222</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1403,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1429,15 +1465,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.578125</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L26">
         <v>37</v>
@@ -1455,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5771428571428572</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L27">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1481,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1507,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.575</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1533,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1559,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5389221556886228</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L31">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1585,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5180722891566265</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1611,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5079365079365079</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1637,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5042735042735043</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1663,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.4938271604938271</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1689,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4754098360655737</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1715,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.4661654135338346</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1741,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.4489795918367347</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1767,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4342105263157895</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1793,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4313725490196079</v>
+        <v>0.44</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1819,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>0.43</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1845,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>0.4285714285714285</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1876,16 +1912,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K43">
-        <v>0.4216867469879518</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L43">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M43">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1897,15 +1933,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.4193548387096774</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L44">
         <v>26</v>
@@ -1923,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45">
-        <v>0.4107142857142857</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1949,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>0.4078947368421053</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1975,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3657587548638132</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L47">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2001,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3480392156862745</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2027,15 +2063,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>266</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3458646616541353</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L49">
         <v>46</v>
@@ -2053,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3453237410071943</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2079,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>91</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>0.3382352941176471</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2105,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3333333333333333</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2131,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>0.3294117647058823</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2157,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K54">
-        <v>0.3178082191780822</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L54">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2183,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>498</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2952380952380952</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2209,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2792792792792793</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2235,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K57">
-        <v>0.2777777777777778</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2261,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>78</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2679425837320574</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L58">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="M58">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2287,47 +2323,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>153</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59">
+        <v>0.25</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>23</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>69</v>
-      </c>
-      <c r="K59">
-        <v>0.2673267326732673</v>
-      </c>
-      <c r="L59">
-        <v>27</v>
-      </c>
-      <c r="M59">
-        <v>27</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>74</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2649006622516556</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L60">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2339,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K61">
-        <v>0.2572658772874058</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L61">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2365,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>690</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>0.231974921630094</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L62">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M62">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2391,12 +2427,12 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K63">
         <v>0.2214765100671141</v>
@@ -2422,68 +2458,68 @@
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64">
-        <v>0.2026490066225166</v>
+        <v>0.2095490716180371</v>
       </c>
       <c r="L64">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M64">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K65">
-        <v>0.2</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1965811965811966</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2495,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>94</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K67">
-        <v>0.190537084398977</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L67">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2521,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>633</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1617250673854447</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L68">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2547,47 +2583,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>311</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1602564102564103</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="L69">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>131</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1463414634146341</v>
+        <v>0.1615120274914089</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2599,99 +2635,99 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>140</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K71">
-        <v>0.145985401459854</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L71">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>351</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1409090909090909</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="L72">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>378</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1386138613861386</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1374570446735395</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L74">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M74">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2703,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1355932203389831</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2729,21 +2765,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76">
-        <v>0.134453781512605</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L76">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M76">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2755,21 +2791,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>206</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K77">
-        <v>0.131578947368421</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L77">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2781,47 +2817,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>396</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.1296296296296296</v>
+        <v>0.132118451025057</v>
       </c>
       <c r="L78">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="M78">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>235</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K79">
-        <v>0.1259259259259259</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L79">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2838,16 +2874,16 @@
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K80">
-        <v>0.1153846153846154</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2859,21 +2895,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K81">
-        <v>0.1121718377088305</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L81">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M81">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2885,21 +2921,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K82">
-        <v>0.09677419354838709</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L82">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2911,21 +2947,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>224</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K83">
-        <v>0.09289617486338798</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L83">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M83">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -2937,163 +2973,241 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>332</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K84">
-        <v>0.08691588785046729</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L84">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="M84">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>977</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K85">
-        <v>0.08034433285509325</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L85">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M85">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>641</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K86">
-        <v>0.07360406091370558</v>
+        <v>0.0737913486005089</v>
       </c>
       <c r="L86">
         <v>29</v>
       </c>
       <c r="M86">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K87">
-        <v>0.06642066420664207</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L87">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M87">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>506</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K88">
-        <v>0.04419410745233969</v>
+        <v>0.06868131868131869</v>
       </c>
       <c r="L88">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M88">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O88">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>1103</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K89">
-        <v>0.04222648752399232</v>
+        <v>0.06654343807763401</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N89">
+        <v>0.97</v>
+      </c>
+      <c r="O89">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K90">
+        <v>0.06053268765133172</v>
+      </c>
+      <c r="L90">
+        <v>25</v>
+      </c>
+      <c r="M90">
+        <v>26</v>
+      </c>
+      <c r="N90">
         <v>0.96</v>
       </c>
-      <c r="O89">
+      <c r="O90">
         <v>0.04000000000000004</v>
       </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>499</v>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K91">
+        <v>0.04807692307692308</v>
+      </c>
+      <c r="L91">
+        <v>25</v>
+      </c>
+      <c r="M91">
+        <v>27</v>
+      </c>
+      <c r="N91">
+        <v>0.93</v>
+      </c>
+      <c r="O91">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K92">
+        <v>0.04332755632582323</v>
+      </c>
+      <c r="L92">
+        <v>50</v>
+      </c>
+      <c r="M92">
+        <v>53</v>
+      </c>
+      <c r="N92">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O92">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
